--- a/biology/Zoologie/Chondrodactylus_bibronii/Chondrodactylus_bibronii.xlsx
+++ b/biology/Zoologie/Chondrodactylus_bibronii/Chondrodactylus_bibronii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gecko de Bibron (Chondrodactylus bibronii) est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gecko de Bibron (Chondrodactylus bibronii) est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, au Mozambique et en Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Swaziland, au Mozambique et en Namibie.
 Elle été introduite en Floride aux États-Unis.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce reptile vit dans des milieux arides entre les bassins du Zambèze et de l'Orange, caractérisés par des températures plutôt élevées le jour et assez fraiches la nuit, et une hygrométrie faible.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore, nocturne et arboricole. Il chasse la nuit et se repose la journée.
 Il est relativement massif, avec une grosse tête. De couleur gris-marron, le corps est parsemé de points blancs, beiges ou noirs. Les écailles sont très apparentes sur tout le corps.
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie, et est réputée pour être assez docile.
 </t>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Smith, 1846 : Illustrations of the zoology of South Africa, Reptilia. London, Smith, Elder, &amp; Co.</t>
         </is>
